--- a/public/excelTemplates/Nhap_Hop_Dong.xlsx
+++ b/public/excelTemplates/Nhap_Hop_Dong.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DQ_Admin_Panel_Project\DQ_Admin_Panel\public\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EC3BC7-9B80-4CC5-91E0-9C8FB0379A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE78FE5-7AFB-46EB-B4A0-4313F17C1A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56748950-8610-46D1-8F15-23048271DE89}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng nhập" sheetId="1" r:id="rId1"/>
+    <sheet name="Mẫu nhập và lưu ý" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Ngày</t>
   </si>
@@ -57,13 +58,76 @@
   </si>
   <si>
     <t>Giá</t>
+  </si>
+  <si>
+    <t>HD001</t>
+  </si>
+  <si>
+    <t>dryRubber</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Lưu ý chung</t>
+  </si>
+  <si>
+    <t>mixedQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ nhập các dữ liệu bên trong bảng! </t>
+  </si>
+  <si>
+    <t>HD002</t>
+  </si>
+  <si>
+    <t>32,4</t>
+  </si>
+  <si>
+    <t>Bắt buộc các trường</t>
+  </si>
+  <si>
+    <t>Format: dd/mm/yyyy. Khi nhập ngày 0-/0-/yyyy, có thể nó sẽ lược bỏ số 0. Không có vấn đề, giữ nguyên!</t>
+  </si>
+  <si>
+    <t>Không được cùng tên</t>
+  </si>
+  <si>
+    <t>Ngày bán</t>
+  </si>
+  <si>
+    <t>Nhập giá trị ở Bảng 1.1</t>
+  </si>
+  <si>
+    <t>Không được số âm</t>
+  </si>
+  <si>
+    <t>0 &gt; x &lt; 100. Đơn vị thập phân (Ví dụ: 32,43). Chỉ áp dụng cho sản phẩm Quy khô (dryRubber)</t>
+  </si>
+  <si>
+    <t>Ghi đánh giá hoặc lưu ý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảng 1.1: Bảng giá trị tương ứng </t>
+  </si>
+  <si>
+    <t>Giá trị</t>
+  </si>
+  <si>
+    <t>Quy khô</t>
+  </si>
+  <si>
+    <t>Mủ tạp</t>
+  </si>
+  <si>
+    <t>Thành phẩm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +143,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8A7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -113,14 +238,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -133,11 +312,42 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -191,18 +401,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9585E38A-449F-4088-9E3E-B0592DDDC3A9}" name="Table3" displayName="Table3" ref="A1:G888" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9585E38A-449F-4088-9E3E-B0592DDDC3A9}" name="Table3" displayName="Table3" ref="A1:G888" totalsRowShown="0" headerRowDxfId="9" dataDxfId="17">
   <autoFilter ref="A1:G888" xr:uid="{9585E38A-449F-4088-9E3E-B0592DDDC3A9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AFA7F123-33DA-4A45-A328-041C57D36106}" name="Ngày" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0FA659EA-8A10-447F-97F7-37877A6154FF}" name="Mã hợp đồng" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{A7015F2C-4892-4C3F-BBFB-47A370FF14E5}" name="Tên sản phẩm" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{97F676CB-97C4-4780-9DC3-8625FBF6BFA0}" name="Số lượng" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{67B233A5-5846-4210-BB88-46EB1E522439}" name="Phần trăm" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F8058422-4660-4B21-AEA6-CF9314C97F0B}" name="Giá" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{AE1C7995-F4A5-489E-A0C5-4AD663549DB2}" name="Ghi chú" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AFA7F123-33DA-4A45-A328-041C57D36106}" name="Ngày" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{0FA659EA-8A10-447F-97F7-37877A6154FF}" name="Mã hợp đồng" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A7015F2C-4892-4C3F-BBFB-47A370FF14E5}" name="Tên sản phẩm" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{97F676CB-97C4-4780-9DC3-8625FBF6BFA0}" name="Số lượng" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{67B233A5-5846-4210-BB88-46EB1E522439}" name="Phần trăm" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F8058422-4660-4B21-AEA6-CF9314C97F0B}" name="Giá" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{AE1C7995-F4A5-489E-A0C5-4AD663549DB2}" name="Ghi chú" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B602330A-58CF-427A-8A3A-E0841EC960B2}" name="Table32" displayName="Table32" ref="A1:G888" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G888" xr:uid="{B602330A-58CF-427A-8A3A-E0841EC960B2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{93B126FC-F9DF-4B7C-9450-F8862278FA83}" name="Ngày" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3E86CABA-2369-44F6-B67B-7A40D1E55CEC}" name="Mã hợp đồng" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{16E2F964-B5E9-46EF-82E2-CFB4D368BC08}" name="Tên sản phẩm" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{CFF8AE9F-A49E-416E-87D7-9D19AD395268}" name="Số lượng" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7935DE4D-FD5D-40FB-B938-5A65F26903CC}" name="Phần trăm" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E4C80CD8-6AAB-4722-8D13-9C30D6D05160}" name="Giá" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A72B4E54-653F-43E6-9059-15321273740C}" name="Ghi chú" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -526,17 +752,17 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -731,10 +957,338 @@
       <c r="N23" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="VthwcDfC2EvTG2C8tGk0dQ96gz96tASCnJSTp6Mg/EhkwLcKcZ1kVgs4sdOvZDgqHSxQfM8ZI3CE6YpvXkuhuQ==" saltValue="qRrwQdZDSyl7WamXOcDoNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D548D298-9623-4B61-B6AF-49A8B803DDB9}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="93.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45658</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45658</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>533</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>744</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>58000</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>499</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>38400</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Kp+14mf8qh9qj/a/QRNc5f/56utjQgqetZxzHtDR+jwuDAltdxVTlVL6HmnUhiWoPazao3mQ/aW6v5ushvTfFg==" saltValue="c/F7+DU73GnAEmxvbHaTdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K15:L15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>